--- a/hebrewOutputs/hebrew82Comperation_12_Common_alpha=0.3.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_12_Common_alpha=0.3.xlsx
@@ -834,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1016,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1212,7 +1212,7 @@
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1366,7 +1366,7 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1478,7 +1478,7 @@
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1562,7 +1562,7 @@
         <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1772,7 +1772,7 @@
         <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1828,7 +1828,7 @@
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -2066,7 +2066,7 @@
         <v>44</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2234,7 +2234,7 @@
         <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2318,7 +2318,7 @@
         <v>55</v>
       </c>
       <c r="C109" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
@@ -2332,7 +2332,7 @@
         <v>121</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
@@ -2458,7 +2458,7 @@
         <v>22</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -2528,7 +2528,7 @@
         <v>48</v>
       </c>
       <c r="C124" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
